--- a/Scrum_doc.xlsx
+++ b/Scrum_doc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\Web-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\GitHub\MusicPlayer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DE47F6-D959-48BD-A9AE-6321C5A67994}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85CE8BB-1177-4AD0-9FF0-2D5905B0D142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="2475" windowWidth="21600" windowHeight="11385" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guide" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="45">
   <si>
     <t>STATUS</t>
   </si>
@@ -85,24 +85,6 @@
     <t>DAY 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Task </t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>User Story #2</t>
-  </si>
-  <si>
-    <t>User Story #3</t>
-  </si>
-  <si>
-    <t>User Story #4</t>
-  </si>
-  <si>
-    <t>User Story #5</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -124,166 +106,70 @@
     <t>Kaisa</t>
   </si>
   <si>
-    <t>Imane</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
-    <t>As a user, I am able to find services from the website.</t>
-  </si>
-  <si>
-    <t>As a user, I am able to order food online.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user, I am able to book a table. </t>
-  </si>
-  <si>
-    <t>As a user, I am able to check different events from the restaurant website.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a user, I am able to visit and use responsive website. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task: Design the layout </t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
     <t>Complete</t>
   </si>
   <si>
-    <t>Task: Create the booking form.</t>
-  </si>
-  <si>
-    <t>Task: Style the booking form</t>
-  </si>
-  <si>
-    <t>Task: Find pictures</t>
-  </si>
-  <si>
-    <t>Task:  Create a events page</t>
-  </si>
-  <si>
-    <t>Task: Style the booking page</t>
-  </si>
-  <si>
-    <t>Task: Thing about events</t>
-  </si>
-  <si>
-    <t>Task: Responsive header</t>
-  </si>
-  <si>
-    <t>Task: Responsive footer</t>
-  </si>
-  <si>
-    <t>As a user, I am able to find information about the restaurant.</t>
-  </si>
-  <si>
-    <t>As a user, I am able to give feedback.</t>
-  </si>
-  <si>
-    <t>As a user, I am able to navigate to the restaurant.</t>
-  </si>
-  <si>
-    <t>Task: Create the menu</t>
-  </si>
-  <si>
-    <t>Task: Create the map</t>
-  </si>
-  <si>
-    <t>Task: Create feedback form</t>
-  </si>
-  <si>
     <t>TOTA</t>
   </si>
   <si>
-    <t>Task: Style the map</t>
-  </si>
-  <si>
-    <t>Task:Style menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task: Create about us page </t>
-  </si>
-  <si>
-    <t>Task: Style the about us page</t>
-  </si>
-  <si>
-    <t>Task: Style the feedback form</t>
-  </si>
-  <si>
-    <t>Task : Make sure the website is user friendly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task: </t>
-  </si>
-  <si>
-    <t>Task : Connect pages via PHP</t>
-  </si>
-  <si>
-    <t>Task: Connect the form with the database</t>
-  </si>
-  <si>
-    <t>Task: Validate the form via JS/HTML</t>
-  </si>
-  <si>
-    <t>Task: Connected with 'Book a table' page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task: Create newsletter form </t>
-  </si>
-  <si>
-    <t>Task: Create PHP form</t>
-  </si>
-  <si>
-    <t>Task: Connect to the database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task: 'Order food' form </t>
-  </si>
-  <si>
-    <t>Task: Adding menu to cart</t>
-  </si>
-  <si>
-    <t>Individual</t>
-  </si>
-  <si>
-    <t>Epherm</t>
-  </si>
-  <si>
-    <t>Task : Create group database in the Azure server</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
-    <t>Ephrem/Kaisa</t>
-  </si>
-  <si>
-    <t>Task : Import &amp; Export the database</t>
-  </si>
-  <si>
-    <t>Kaisa/Ephrem</t>
-  </si>
-  <si>
-    <t>Task : Finalising the website</t>
-  </si>
-  <si>
-    <t>Task : Checking the functionalities</t>
+    <t>As a user, I am able to listen to the music.</t>
+  </si>
+  <si>
+    <t>As a user, I am able to see my songs from my playlist.</t>
+  </si>
+  <si>
+    <t>As a user, I am able to share songs.</t>
+  </si>
+  <si>
+    <t>As a user, I am able to use forward, backward and pause.</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Backward</t>
+  </si>
+  <si>
+    <t>Pause, play</t>
+  </si>
+  <si>
+    <t>Kaisa, Eprhem</t>
+  </si>
+  <si>
+    <t>Get data from data.js</t>
+  </si>
+  <si>
+    <t>Make data.js file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user, I am able to have good user interface </t>
+  </si>
+  <si>
+    <t>Player screen</t>
+  </si>
+  <si>
+    <t>AudioList screen</t>
+  </si>
+  <si>
+    <t>Playlist screen</t>
+  </si>
+  <si>
+    <t>Functionlity for playlist added</t>
+  </si>
+  <si>
+    <t>Kaisa, Ephrem</t>
   </si>
 </sst>
 </file>
@@ -551,7 +437,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -584,18 +470,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1401,13 +1275,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>150495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>546735</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -1965,7 +1839,7 @@
   <sheetData>
     <row r="32" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M32" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="10:18" x14ac:dyDescent="0.25">
@@ -1993,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95158496-5B07-4778-871C-839C6BA690D9}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2007,12 +1881,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -2027,50 +1901,69 @@
     </row>
     <row r="3" spans="1:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2268,10 +2161,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEC472C-4832-45AF-A950-04969A0E3C90}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2279,10 +2172,9 @@
     <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.125" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -2290,21 +2182,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>30</v>
-      </c>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -2314,35 +2201,26 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
-        <v>44239</v>
+        <v>44470</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>31</v>
-      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2350,33 +2228,24 @@
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
-        <v>44246</v>
+        <v>44473</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>32</v>
-      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
       <c r="B8" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
@@ -2384,35 +2253,26 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
-        <v>44253</v>
+        <v>44477</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>76</v>
-      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
       <c r="B11" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>5</v>
       </c>
@@ -2420,35 +2280,26 @@
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
-        <v>44258</v>
+        <v>44480</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>77</v>
-      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>5</v>
       </c>
@@ -2456,19 +2307,96 @@
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
-        <v>44265</v>
+        <v>44482</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>44484</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>44491</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>44497</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2478,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B586DF3-05CE-45CD-BBBF-F44EAB136942}">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2493,34 +2421,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
+      <c r="A1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>10</v>
@@ -2556,7 +2484,7 @@
     </row>
     <row r="3" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
@@ -2579,14 +2507,14 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -2606,14 +2534,14 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -2631,16 +2559,16 @@
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B6" s="14"/>
       <c r="C6" s="14" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
@@ -2659,8 +2587,227 @@
       <c r="S6" s="15"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10">
+        <f>SUM(E4:E6)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <f>SUM(F3:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <f>SUM(G3:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <f>SUM(H3:H6)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <f>SUM(I3:I6)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6493C1AE-7DEA-468D-A29A-77DFE72F7817}">
+  <dimension ref="A1:S10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.875" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+    </row>
+    <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+    </row>
+    <row r="3" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+    </row>
+    <row r="6" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
@@ -2681,16 +2828,16 @@
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -2708,16 +2855,16 @@
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -2736,520 +2883,30 @@
       <c r="S9" s="15"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-    </row>
-    <row r="11" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-    </row>
-    <row r="16" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-    </row>
-    <row r="20" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-    </row>
-    <row r="26" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10">
-        <f>SUM(E4:E29)</f>
+      <c r="A10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10">
+        <f>SUM(E4:E9)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="10">
-        <f>SUM(F3:F29)</f>
+      <c r="F10" s="10">
+        <f>SUM(F3:F9)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="10">
-        <f>SUM(G3:G29)</f>
+      <c r="G10" s="10">
+        <f>SUM(G3:G9)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="10">
-        <f>SUM(H3:H29)</f>
+      <c r="H10" s="10">
+        <f>SUM(H3:H9)</f>
         <v>0</v>
       </c>
-      <c r="I30" s="10">
-        <f>SUM(I3:I29)</f>
+      <c r="I10" s="10">
+        <f>SUM(I3:I9)</f>
         <v>0</v>
       </c>
     </row>
@@ -3258,16 +2915,15 @@
     <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6493C1AE-7DEA-468D-A29A-77DFE72F7817}">
-  <dimension ref="A1:S21"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7731B6D7-7F00-4FCA-8B0A-5599C358D52C}">
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3279,27 +2935,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
+      <c r="A1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
     </row>
     <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -3342,7 +2998,7 @@
     </row>
     <row r="3" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
@@ -3363,17 +3019,15 @@
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>41</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -3391,21 +3045,32 @@
       <c r="S4" s="15"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
+      <c r="A5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10">
+        <f>SUM(E4:E4)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <f>SUM(F3:F4)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <f>SUM(G3:G4)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <f>SUM(H3:H4)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <f>SUM(I3:I4)</f>
+        <v>0</v>
+      </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
@@ -3417,1130 +3082,6 @@
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
     </row>
-    <row r="6" spans="1:19" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-    </row>
-    <row r="8" spans="1:19" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-    </row>
-    <row r="9" spans="1:19" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-    </row>
-    <row r="10" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-    </row>
-    <row r="11" spans="1:19" ht="27" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-    </row>
-    <row r="12" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-    </row>
-    <row r="18" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10">
-        <f>SUM(E4:E20)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="10">
-        <f>SUM(F3:F20)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="10">
-        <f>SUM(G3:G20)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
-        <f>SUM(H3:H20)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="10">
-        <f>SUM(I3:I20)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:S1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7731B6D7-7F00-4FCA-8B0A-5599C358D52C}">
-  <dimension ref="A1:S28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A12:A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.875" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-    </row>
-    <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-    </row>
-    <row r="3" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-    </row>
-    <row r="4" spans="1:19" ht="27" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10">
-        <f>SUM(E4:E27)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="10">
-        <f>SUM(F3:F27)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="10">
-        <f>SUM(G3:G27)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="10">
-        <f>SUM(H3:H27)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="10">
-        <f>SUM(I3:I27)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
